--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议20170215.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议20170215.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="274">
   <si>
     <t>XBOT510高端控制盒通信协议集</t>
   </si>
@@ -576,6 +576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>》是一致的。</t>
@@ -608,7 +609,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -618,7 +619,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">BIT7 == 1: </t>
     </r>
@@ -654,7 +655,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -664,7 +665,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Bit6~4 = 001</t>
     </r>
@@ -684,7 +685,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DtCtrl_EX </t>
     </r>
@@ -713,7 +714,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -723,7 +724,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BIT1~0 = FeedIndex:0~3</t>
     </r>
@@ -1404,18 +1405,16 @@
   <si>
     <t>数据</t>
   </si>
+  <si>
+    <t>A5 01 80 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 25</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,161 +1475,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1639,202 +1494,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2194,578 +1884,288 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3055,141 +2455,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="67" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="9" style="67"/>
-    <col min="5" max="5" width="11.25" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="36.125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9" style="37"/>
+    <col min="5" max="5" width="11.25" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:5">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:5">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="77"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="46">
         <v>42781</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="84"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="83"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="84"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="83"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="84"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" ht="17.25" spans="1:5">
-      <c r="A10" s="85" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="53"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="53"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="53"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="48">
         <v>42781</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="88"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="89" t="s">
+      <c r="E10" s="50"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3198,14 +2598,14 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A1:E2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3213,1352 +2613,1379 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="47.05" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26.7583333333333" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="9" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="5.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="47" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:7">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="38">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="41"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="64"/>
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="11">
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="67">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="11">
+      <c r="G13" s="73"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="65">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="67">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13" t="s">
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="G18" s="73"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
+      <c r="G19" s="73"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A22" s="38">
+      <c r="G21" s="73"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="63">
         <v>5</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="68">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="13" t="s">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="66"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="13" t="s">
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="66"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="13" t="s">
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="13" t="s">
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A27" s="41"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="13" t="s">
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="64"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A28" s="38">
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="63">
         <v>6</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="45">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="D28" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="68">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="13" t="s">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="13" t="s">
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="49"/>
-    </row>
-    <row r="31" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="13" t="s">
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="13" t="s">
+      <c r="G31" s="75"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="66"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A33" s="41"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="13" t="s">
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="64"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A34" s="38">
+      <c r="G33" s="76"/>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63">
         <v>7</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="45">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="D34" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="68">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="13" t="s">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="13" t="s">
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="13" t="s">
+      <c r="G36" s="75"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="13" t="s">
+      <c r="G37" s="75"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="66"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="13" t="s">
+      <c r="G38" s="75"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="66"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="49"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="13" t="s">
+      <c r="G39" s="75"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="66"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="49"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
-      <c r="A41" s="41"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="13" t="s">
+      <c r="G40" s="75"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="64"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="51"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
-      <c r="A42" s="38">
+      <c r="G41" s="76"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="63">
         <v>8</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="45">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="D42" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="68">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:7">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="13" t="s">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="66"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="13" t="s">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="66"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="13" t="s">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="66"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:7">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="13" t="s">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:7">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="13" t="s">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="66"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:7">
-      <c r="A48" s="41"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="13" t="s">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="64"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="52"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:7">
-      <c r="A49" s="11">
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
         <v>9</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13" t="s">
+      <c r="D49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="77" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:7">
-      <c r="A50" s="11">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
         <v>10</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="13" t="s">
+      <c r="D50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="53"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:7">
-      <c r="A51" s="11">
+      <c r="G50" s="77"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
         <v>11</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="12">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="D51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="11">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
         <v>12</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="D52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="11">
+      <c r="G52" s="77"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
         <v>13</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13" t="s">
+      <c r="D53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:7">
-      <c r="A54" s="11">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
         <v>14</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="D54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G54" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="1:7">
-      <c r="A55" s="32">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="17">
         <v>15</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="33">
-        <v>1</v>
-      </c>
-      <c r="F55" s="55" t="s">
+      <c r="D55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="35"/>
-    </row>
-    <row r="56" ht="16.5" spans="1:7">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-    </row>
-    <row r="57" ht="16.5" spans="1:7">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:7">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-    </row>
-    <row r="60" ht="17.25" spans="1:7">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-    </row>
-    <row r="61" ht="29.25" spans="1:7">
-      <c r="A61" s="37" t="s">
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:7">
-      <c r="A62" s="11" t="s">
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="62"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:7">
-      <c r="A63" s="11">
-        <v>1</v>
-      </c>
-      <c r="B63" s="12" t="s">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="13" t="s">
+      <c r="D63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="38">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="63">
         <v>2</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="12">
-        <v>1</v>
-      </c>
-      <c r="F64" s="13" t="s">
+      <c r="D64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A65" s="41"/>
-      <c r="B65" s="12" t="s">
+    <row r="65" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="64"/>
+      <c r="B65" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="12">
-        <v>1</v>
-      </c>
-      <c r="F65" s="13" t="s">
+      <c r="D65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G65" s="42"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A66" s="11">
+      <c r="G65" s="72"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
         <v>3</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="12">
-        <v>1</v>
-      </c>
-      <c r="F66" s="39" t="s">
+      <c r="D66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A67" s="11">
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
         <v>4</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="12">
-        <v>1</v>
-      </c>
-      <c r="F67" s="39" t="s">
+      <c r="D67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="G67" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:7">
-      <c r="A68" s="11">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
         <v>5</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="12">
-        <v>1</v>
-      </c>
-      <c r="F68" s="39" t="s">
+      <c r="D68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="61"/>
-    </row>
-    <row r="69" ht="82.5" spans="1:7">
-      <c r="A69" s="25">
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="14">
         <v>6</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="25">
-        <v>1</v>
-      </c>
-      <c r="F69" s="62" t="s">
+      <c r="D69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="62"/>
-    </row>
-    <row r="70" ht="82.5" spans="1:7">
-      <c r="A70" s="25">
+      <c r="G69" s="32"/>
+    </row>
+    <row r="70" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="14">
         <v>7</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="25">
-        <v>1</v>
-      </c>
-      <c r="F70" s="62" t="s">
+      <c r="D70" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="14">
+        <v>1</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="G70" s="62"/>
-    </row>
-    <row r="71" ht="82.5" spans="1:7">
-      <c r="A71" s="25">
+      <c r="G70" s="32"/>
+    </row>
+    <row r="71" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="14">
         <v>8</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="25">
-        <v>1</v>
-      </c>
-      <c r="F71" s="62" t="s">
+      <c r="D71" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="14">
+        <v>1</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G71" s="62"/>
-    </row>
-    <row r="72" ht="66" spans="1:7">
-      <c r="A72" s="25">
+      <c r="G71" s="32"/>
+    </row>
+    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A72" s="14">
         <v>9</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="62" t="s">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="62"/>
-    </row>
-    <row r="73" ht="115.5" spans="1:7">
-      <c r="A73" s="25">
+      <c r="G72" s="32"/>
+    </row>
+    <row r="73" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="14">
         <v>10</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="62" t="s">
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="63" t="s">
+      <c r="G73" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" ht="132" spans="1:7">
-      <c r="A74" s="11">
+    <row r="74" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
         <v>11</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="12">
-        <v>1</v>
-      </c>
-      <c r="F74" s="62" t="s">
+      <c r="D74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:7">
-      <c r="A75" s="11">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
         <v>12</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="12">
-        <v>1</v>
-      </c>
-      <c r="F75" s="13" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G75" s="62"/>
-    </row>
-    <row r="76" ht="16.5" spans="1:7">
-      <c r="A76" s="11">
+      <c r="G75" s="32"/>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
         <v>13</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="12">
-        <v>1</v>
-      </c>
-      <c r="F76" s="13" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G76" s="62"/>
-    </row>
-    <row r="77" ht="16.5" spans="1:7">
-      <c r="A77" s="11">
+      <c r="G76" s="32"/>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
         <v>14</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="12">
-        <v>1</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G77" s="62"/>
-    </row>
-    <row r="78" ht="17.25" spans="1:7">
-      <c r="A78" s="11">
+      <c r="G77" s="32"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
         <v>15</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D78" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="33">
-        <v>1</v>
-      </c>
-      <c r="F78" s="55" t="s">
+      <c r="D78" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="35"/>
-    </row>
-    <row r="79" ht="16.5" spans="1:7">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-    </row>
-    <row r="80" s="6" customFormat="1" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A80" s="6" t="s">
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" s="6" customFormat="1" spans="1:2">
-      <c r="A81" s="6">
-        <v>1</v>
-      </c>
-      <c r="B81" s="36" t="s">
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" s="6" customFormat="1" spans="2:2">
-      <c r="B82" s="36" t="s">
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" s="6" customFormat="1" spans="2:2">
-      <c r="B83" s="36" t="s">
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:7">
-      <c r="A84" s="6">
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
         <v>2</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-    </row>
-    <row r="85" s="6" customFormat="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A85" s="36"/>
-      <c r="B85" s="65" t="s">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="21"/>
+      <c r="B85" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="65" t="s">
+      <c r="E85" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-    </row>
-    <row r="86" s="6" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A86" s="36"/>
-      <c r="B86" s="65" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+    </row>
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="21"/>
+      <c r="B86" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="65" t="s">
+      <c r="C86" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D86" s="65" t="s">
+      <c r="D86" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="65" t="s">
+      <c r="E86" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F86" s="65" t="s">
+      <c r="F86" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="G86" s="65"/>
-    </row>
-    <row r="87" s="6" customFormat="1" spans="1:7">
-      <c r="A87" s="36"/>
-      <c r="B87" s="65" t="s">
+      <c r="G86" s="35"/>
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="21"/>
+      <c r="B87" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D87" s="65" t="s">
+      <c r="D87" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="65" t="s">
+      <c r="E87" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-    </row>
-    <row r="88" s="6" customFormat="1" spans="1:2">
-      <c r="A88" s="6">
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+    </row>
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
         <v>3</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" s="6" customFormat="1"/>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A4:A5"/>
@@ -4568,13 +3995,6 @@
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B48"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="C22:C27"/>
@@ -4582,36 +4002,16 @@
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="D6:D13"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G64:G65"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4619,1035 +4019,1042 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="7" customWidth="1"/>
-    <col min="8" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="9" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="5.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="5.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="5" customWidth="1"/>
+    <col min="8" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:7">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="38">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39" t="s">
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="78" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A5" s="41"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="64"/>
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A6" s="11">
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="11">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="11">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="11">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="11">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="11">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="11">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="11">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="11">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="11">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="11">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="11">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:7">
-      <c r="A18" s="11">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="D18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:1">
-      <c r="A20" s="36" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="2:2">
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="2:2">
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:G5"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.399975585192419"/>
+    <tabColor theme="3" tint="0.39994506668294322"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="7" customWidth="1"/>
-    <col min="8" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="9" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="5.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="5.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="5" customWidth="1"/>
+    <col min="8" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="15">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="68">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="12" t="s">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" ht="66" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A6" s="66"/>
+      <c r="B6" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="80" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" ht="66" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="66"/>
+      <c r="B7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" ht="49.5" spans="1:7">
-      <c r="A8" s="11">
+      <c r="G7" s="81"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" ht="49.5" spans="1:7">
-      <c r="A9" s="11">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="1:7">
-      <c r="A10" s="15">
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="63">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="68">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" ht="49.5" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="64"/>
+      <c r="B11" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="49.5" spans="1:7">
-      <c r="A12" s="17">
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="66">
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="84" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" ht="49.5" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="64"/>
+      <c r="B13" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" ht="49.5" spans="1:7">
-      <c r="A14" s="17">
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="66">
         <v>7</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="69">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="84" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" ht="49.5" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="64"/>
+      <c r="B15" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" ht="49.5" spans="1:7">
-      <c r="A16" s="17">
+      <c r="G15" s="83"/>
+    </row>
+    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="66">
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="69">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="84" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" ht="49.5" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="64"/>
+      <c r="B17" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" ht="66" spans="1:7">
-      <c r="A18" s="11">
+      <c r="G17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:7">
-      <c r="A19" s="15">
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A19" s="63">
         <v>10</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="68">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="82" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" ht="66" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A20" s="64"/>
+      <c r="B20" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" ht="33" spans="1:7">
-      <c r="A21" s="17">
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="66">
         <v>11</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="69">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="84" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="66"/>
+      <c r="B22" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" ht="33" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="25" t="s">
+      <c r="G22" s="84"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="66"/>
+      <c r="B23" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" ht="33" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
+      <c r="G23" s="84"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="66"/>
+      <c r="B24" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" ht="33" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
+      <c r="G24" s="84"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="66"/>
+      <c r="B25" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" ht="33" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="25" t="s">
+      <c r="G25" s="84"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="13" t="s">
+      <c r="G26" s="84"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="64"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" ht="198" spans="1:7">
-      <c r="A28" s="15">
+      <c r="G27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
+      <c r="A28" s="63">
         <v>12</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="D28" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="68">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="82" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="64"/>
+      <c r="B29" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="31" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" ht="17.25" spans="1:7">
-      <c r="A30" s="32">
+      <c r="G29" s="84"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
         <v>13</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="33">
-        <v>1</v>
-      </c>
-      <c r="F30" s="34" t="s">
+      <c r="D30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="32" s="6" customFormat="1" spans="1:1">
-      <c r="A32" s="36" t="s">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="2:2">
-      <c r="B33" s="36" t="s">
+    <row r="33" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="2:2">
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1"/>
-    <row r="36" s="6" customFormat="1"/>
-    <row r="37" s="6" customFormat="1"/>
-    <row r="38" s="6" customFormat="1"/>
-    <row r="39" s="6" customFormat="1"/>
-    <row r="40" s="6" customFormat="1"/>
-    <row r="41" s="6" customFormat="1"/>
+    <row r="35" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -5660,181 +5067,172 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="G28:G29"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="86"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>